--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-729395.6118553679</v>
+        <v>-731283.1933717699</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>584399.8450276877</v>
+        <v>257713.9762549954</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14181995.8597096</v>
+        <v>14181995.85970959</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,16 +665,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>235.2048962222889</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -710,16 +710,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>187.4718790542603</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>141.617819666993</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>167.4599045712068</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>127.0784597613395</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>193.3636329797264</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>141.3865903334047</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>184.776081358319</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>35.18155893056274</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>82.7420939507362</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>17.15656674520519</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>6.59601561836874</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>59.77945773664783</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>23.5487265497745</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>268.4599042836804</v>
+        <v>85.29325318978621</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>76.2289982445197</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>11.0243119141735</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,10 +2242,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,19 +2290,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>209.052479737848</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>57.69520250663628</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>22.61010374200615</v>
+        <v>153.0952537370581</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>183.1796758467002</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>225.124748876228</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>112.0435644700706</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965541</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801223</v>
+        <v>91.23070601801197</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437405</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897918</v>
+        <v>93.71057173897893</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571503</v>
+        <v>55.2159888357148</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523584</v>
+        <v>6.288651022091869</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298323</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>231.0340957700201</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952711</v>
+        <v>196.9343866952708</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080341</v>
+        <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>69.99894609865569</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415142</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463136</v>
@@ -3755,10 +3755,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463136</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1317.778685247039</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="C2" t="n">
-        <v>1317.778685247039</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>851.6468184889688</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>465.8585658907246</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>458.9130651415211</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>444.9896610801121</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332392</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2331.606068934149</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2077.844283572241</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V2" t="n">
-        <v>2077.844283572241</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W2" t="n">
-        <v>2077.844283572241</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X2" t="n">
-        <v>1704.378525311161</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="Y2" t="n">
-        <v>1704.378525311161</v>
+        <v>1209.912517095719</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170821</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359551</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692481</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4434,25 +4434,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2339.812365142453</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="C4" t="n">
-        <v>2170.876182214546</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="D4" t="n">
-        <v>2170.876182214546</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.963088632152</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632152</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632152</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632152</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>2482.860667836385</v>
+        <v>558.9775654476394</v>
       </c>
       <c r="W4" t="n">
-        <v>2482.860667836385</v>
+        <v>558.9775654476394</v>
       </c>
       <c r="X4" t="n">
-        <v>2482.860667836385</v>
+        <v>558.9775654476394</v>
       </c>
       <c r="Y4" t="n">
-        <v>2482.860667836385</v>
+        <v>338.1849863041093</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.915471247702</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C5" t="n">
-        <v>1491.915471247702</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D5" t="n">
-        <v>1491.915471247702</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4595,22 +4595,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2446.803600559093</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2446.803600559093</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2115.740713215522</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1762.972057945408</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.654643287636</v>
+        <v>1762.972057945408</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.515311311824</v>
+        <v>1762.972057945408</v>
       </c>
     </row>
     <row r="6">
@@ -4635,25 +4635,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.6913543878343</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6913543878343</v>
+        <v>196.7577195308743</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>196.7577195308743</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>196.7577195308743</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>196.7577195308743</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>196.7577195308743</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406185</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406185</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406185</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406185</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="W7" t="n">
-        <v>393.339819218074</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="X7" t="n">
-        <v>393.339819218074</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="Y7" t="n">
-        <v>393.339819218074</v>
+        <v>365.6939024587812</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1626.94664591678</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F8" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2112.324418312742</v>
       </c>
       <c r="W8" t="n">
-        <v>1626.94664591678</v>
+        <v>2112.324418312742</v>
       </c>
       <c r="X8" t="n">
-        <v>1626.94664591678</v>
+        <v>1738.858660051662</v>
       </c>
       <c r="Y8" t="n">
-        <v>1626.94664591678</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4878,46 +4878,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204.0596212327002</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>710.7991188072369</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>710.7991188072369</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>710.7991188072369</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>710.7991188072369</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>421.6255084618049</v>
       </c>
       <c r="V10" t="n">
-        <v>721.4663421676781</v>
+        <v>421.6255084618049</v>
       </c>
       <c r="W10" t="n">
-        <v>432.0491721307175</v>
+        <v>421.6255084618049</v>
       </c>
       <c r="X10" t="n">
-        <v>204.0596212327002</v>
+        <v>421.6255084618049</v>
       </c>
       <c r="Y10" t="n">
-        <v>204.0596212327002</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="11">
@@ -5018,16 +5018,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5048,16 +5048,16 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5121,22 +5121,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>327.180197328635</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M12" t="n">
-        <v>1095.548343721096</v>
+        <v>1506.438612565609</v>
       </c>
       <c r="N12" t="n">
-        <v>1440.068999358714</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O12" t="n">
-        <v>2023.248313029762</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P12" t="n">
-        <v>2543.548934765509</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
         <v>2612.943493278838</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>289.9398668627125</v>
+        <v>157.6003821033645</v>
       </c>
       <c r="C13" t="n">
-        <v>121.0036839348056</v>
+        <v>157.6003821033645</v>
       </c>
       <c r="D13" t="n">
-        <v>121.0036839348056</v>
+        <v>157.6003821033645</v>
       </c>
       <c r="E13" t="n">
-        <v>121.0036839348056</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>121.0036839348056</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>121.0036839348056</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>121.0036839348056</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028587</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119726</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035278</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824784</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.78763177146</v>
+        <v>675.0071030383423</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.78763177146</v>
+        <v>675.0071030383423</v>
       </c>
       <c r="W13" t="n">
-        <v>920.3704617344997</v>
+        <v>385.5899330013817</v>
       </c>
       <c r="X13" t="n">
-        <v>692.3809108364824</v>
+        <v>157.6003821033645</v>
       </c>
       <c r="Y13" t="n">
-        <v>471.5883316929522</v>
+        <v>157.6003821033645</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
         <v>904.3190116155888</v>
@@ -5270,16 +5270,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643324</v>
@@ -5303,25 +5303,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5358,16 +5358,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L15" t="n">
-        <v>97.21709146028587</v>
+        <v>672.7865564335244</v>
       </c>
       <c r="M15" t="n">
-        <v>323.6581146605669</v>
+        <v>993.1218759632262</v>
       </c>
       <c r="N15" t="n">
-        <v>1128.069692924718</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="O15" t="n">
         <v>1797.533454227377</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>563.4221461351941</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C16" t="n">
-        <v>563.4221461351941</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D16" t="n">
-        <v>413.3055067228584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028587</v>
@@ -5434,16 +5434,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585748</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557904</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557904</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557904</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1227.744650069338</v>
+        <v>1301.686365917924</v>
       </c>
       <c r="V16" t="n">
-        <v>973.0601618634512</v>
+        <v>1047.001877712037</v>
       </c>
       <c r="W16" t="n">
-        <v>973.0601618634512</v>
+        <v>1047.001877712037</v>
       </c>
       <c r="X16" t="n">
-        <v>745.0706109654338</v>
+        <v>819.0123268140194</v>
       </c>
       <c r="Y16" t="n">
-        <v>745.0706109654338</v>
+        <v>598.2197476704893</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,22 +5525,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5549,7 +5549,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028587</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
-        <v>334.288126757867</v>
+        <v>1377.135023317374</v>
       </c>
       <c r="N18" t="n">
-        <v>1138.699705022018</v>
+        <v>2181.546601581525</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2430.300015665487</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>573.5346686508864</v>
+        <v>453.9259926442952</v>
       </c>
       <c r="C19" t="n">
-        <v>573.5346686508864</v>
+        <v>453.9259926442952</v>
       </c>
       <c r="D19" t="n">
-        <v>423.4180292385506</v>
+        <v>453.9259926442952</v>
       </c>
       <c r="E19" t="n">
-        <v>423.4180292385506</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F19" t="n">
-        <v>276.5280817406405</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G19" t="n">
-        <v>108.3527600604611</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>108.3527600604611</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V19" t="n">
-        <v>755.1831334811261</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W19" t="n">
-        <v>755.1831334811261</v>
+        <v>674.7185717878253</v>
       </c>
       <c r="X19" t="n">
-        <v>755.1831334811261</v>
+        <v>674.7185717878253</v>
       </c>
       <c r="Y19" t="n">
-        <v>755.1831334811261</v>
+        <v>453.9259926442952</v>
       </c>
     </row>
     <row r="20">
@@ -5750,10 +5750,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5832,25 +5832,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L21" t="n">
-        <v>1288.32563221405</v>
+        <v>493.5013994809973</v>
       </c>
       <c r="M21" t="n">
-        <v>2056.693778606511</v>
+        <v>1261.869545873459</v>
       </c>
       <c r="N21" t="n">
-        <v>2623.573505376138</v>
+        <v>1606.390201511077</v>
       </c>
       <c r="O21" t="n">
-        <v>2623.573505376138</v>
+        <v>2275.853962813736</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>245.130185042679</v>
+        <v>509.2863307027309</v>
       </c>
       <c r="C22" t="n">
-        <v>245.130185042679</v>
+        <v>509.2863307027309</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028586</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028586</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028586</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028586</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028586</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1087.832139526133</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>798.7035007396914</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706319</v>
+        <v>798.7035007396914</v>
       </c>
       <c r="W22" t="n">
-        <v>473.1197359406963</v>
+        <v>509.2863307027309</v>
       </c>
       <c r="X22" t="n">
-        <v>245.130185042679</v>
+        <v>509.2863307027309</v>
       </c>
       <c r="Y22" t="n">
-        <v>245.130185042679</v>
+        <v>509.2863307027309</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,19 +5987,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6020,19 +6020,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>1033.449232197401</v>
       </c>
       <c r="M24" t="n">
-        <v>2056.693778606511</v>
+        <v>1353.784551727103</v>
       </c>
       <c r="N24" t="n">
-        <v>2623.573505376138</v>
+        <v>1353.784551727103</v>
       </c>
       <c r="O24" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>418.0853130833036</v>
+        <v>420.034083581938</v>
       </c>
       <c r="C25" t="n">
-        <v>395.2468244550147</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D25" t="n">
-        <v>245.130185042679</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247854</v>
       </c>
       <c r="U25" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247854</v>
       </c>
       <c r="V25" t="n">
-        <v>820.5263570570734</v>
+        <v>709.4512536188986</v>
       </c>
       <c r="W25" t="n">
-        <v>820.5263570570734</v>
+        <v>420.034083581938</v>
       </c>
       <c r="X25" t="n">
-        <v>820.5263570570734</v>
+        <v>420.034083581938</v>
       </c>
       <c r="Y25" t="n">
-        <v>599.7337779135432</v>
+        <v>420.034083581938</v>
       </c>
     </row>
     <row r="26">
@@ -6224,13 +6224,13 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>436.8967109626374</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1050.793780719526</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1819.161927111988</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N27" t="n">
-        <v>2623.573505376138</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O27" t="n">
-        <v>2623.573505376138</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6382,16 +6382,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.100879744681</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V28" t="n">
-        <v>835.4163915387938</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>843.7395088768799</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>616.3407726382658</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>395.5481934947356</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6449,31 +6449,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6543,25 +6543,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028584</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M30" t="n">
-        <v>334.288126757867</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022018</v>
+        <v>2025.317482043085</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2274.070896127047</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.7457372049864</v>
+        <v>656.5190452905599</v>
       </c>
       <c r="C31" t="n">
-        <v>546.5704195584501</v>
+        <v>543.3437276440238</v>
       </c>
       <c r="D31" t="n">
-        <v>452.214645427485</v>
+        <v>543.3437276440238</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264625</v>
+        <v>451.1914993430016</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264625</v>
+        <v>360.0624171264622</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276539</v>
+        <v>247.6479607276535</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569678</v>
+        <v>152.9908175569675</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933499</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667505</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962047</v>
+        <v>997.6688721962056</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056073</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1929.773890306488</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096192</v>
+        <v>1785.614745503411</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167069</v>
+        <v>1785.614745503411</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661998</v>
+        <v>1552.24697199834</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737481</v>
+        <v>1353.323349073824</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818914</v>
+        <v>1119.667044318234</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652447</v>
+        <v>947.4383587015878</v>
       </c>
       <c r="Y31" t="n">
-        <v>659.7457372049864</v>
+        <v>782.4066448394287</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>436.8967109626374</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L33" t="n">
-        <v>1050.793780719526</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M33" t="n">
-        <v>1819.161927111988</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N33" t="n">
-        <v>2623.573505376138</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O33" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,49 +6920,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>436.8967109626374</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>1050.793780719526</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M36" t="n">
-        <v>1819.161927111988</v>
+        <v>1058.405785702849</v>
       </c>
       <c r="N36" t="n">
-        <v>2623.573505376138</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O36" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525398</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7138,7 +7138,7 @@
         <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>1026.585720682179</v>
       </c>
       <c r="M39" t="n">
-        <v>2056.693778606511</v>
+        <v>1346.921040211881</v>
       </c>
       <c r="N39" t="n">
-        <v>2623.573505376138</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O39" t="n">
-        <v>2623.573505376138</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
         <v>221.529509210313</v>
@@ -7327,55 +7327,55 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
@@ -7397,22 +7397,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,10 +7421,10 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
         <v>4454.632848899128</v>
@@ -7442,19 +7442,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M42" t="n">
-        <v>2056.693778606511</v>
+        <v>783.5490372870998</v>
       </c>
       <c r="N42" t="n">
-        <v>2623.573505376138</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504513</v>
@@ -7567,10 +7567,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7594,25 +7594,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7637,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7658,19 +7658,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>240.8957496970231</v>
       </c>
       <c r="M45" t="n">
-        <v>2056.693778606511</v>
+        <v>1009.263896089485</v>
       </c>
       <c r="N45" t="n">
-        <v>2623.573505376138</v>
+        <v>1353.784551727103</v>
       </c>
       <c r="O45" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
   </sheetData>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,7 +8778,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>174.1108308487934</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9006,19 +9006,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>370.8623401849284</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>381.5997261417972</v>
+        <v>399.8417038772579</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9492,13 +9492,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>176.378562110682</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9726,16 +9726,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9963,16 +9963,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>214.9586253214617</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,13 +10191,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10206,7 +10206,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>178.1796395719844</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10440,13 +10440,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10677,13 +10677,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10914,13 +10914,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>215.3005754067913</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11376,10 +11376,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>283.6843375947603</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11388,13 +11388,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>86.65450490992134</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>86.87051891449748</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23707,7 +23707,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>17.77744811489696</v>
+        <v>200.9440992087911</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>70.20496440204947</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>99.39493355009849</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,10 +24130,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,19 +24178,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>12.49508132054129</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>228.8277958299547</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>144.6367173566217</v>
+        <v>14.15156736156976</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>103.0576765518771</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>0.5849065128091127</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533804</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965516</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943743</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>48.47244475314374</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.38245062488215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>7.460698725481052e-13</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1192638.632200013</v>
+        <v>1192638.632200012</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1192638.632200012</v>
+        <v>1192638.632200013</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1192638.632200013</v>
+        <v>1192638.632200012</v>
       </c>
     </row>
     <row r="11">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="C2" t="n">
         <v>184734.3982194637</v>
       </c>
       <c r="D2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="E2" t="n">
-        <v>175963.0768819689</v>
+        <v>175963.0768819691</v>
       </c>
       <c r="F2" t="n">
-        <v>175963.0768819689</v>
+        <v>175963.076881969</v>
       </c>
       <c r="G2" t="n">
-        <v>175963.0768819689</v>
+        <v>175963.076881969</v>
       </c>
       <c r="H2" t="n">
         <v>175963.0768819689</v>
@@ -26350,7 +26350,7 @@
         <v>184734.398219464</v>
       </c>
       <c r="O2" t="n">
-        <v>184734.398219464</v>
+        <v>184734.3982194641</v>
       </c>
       <c r="P2" t="n">
         <v>184734.3982194641</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284556</v>
+        <v>44162.60530284575</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086696</v>
+        <v>10342.90680086676</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.6053028458</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758428</v>
+      </c>
+      <c r="F4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="F4" t="n">
-        <v>787.7936905758552</v>
-      </c>
       <c r="G4" t="n">
-        <v>787.7936905758218</v>
+        <v>787.7936905758901</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758629</v>
+        <v>787.7936905758888</v>
       </c>
       <c r="I4" t="n">
+        <v>787.7936905758901</v>
+      </c>
+      <c r="J4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="J4" t="n">
-        <v>787.7936905758695</v>
-      </c>
       <c r="K4" t="n">
-        <v>18952.41620477237</v>
+        <v>18952.41620477246</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="N4" t="n">
+        <v>23206.58093189631</v>
+      </c>
+      <c r="O4" t="n">
         <v>23206.58093189634</v>
       </c>
-      <c r="O4" t="n">
-        <v>23206.58093189631</v>
-      </c>
       <c r="P4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189636</v>
       </c>
     </row>
     <row r="5">
@@ -26482,34 +26482,34 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-627151.6982391094</v>
+        <v>-627151.6982391092</v>
       </c>
       <c r="C6" t="n">
         <v>-37183.81902456484</v>
       </c>
       <c r="D6" t="n">
-        <v>-37183.81902456484</v>
+        <v>-37183.8190245647</v>
       </c>
       <c r="E6" t="n">
-        <v>-441972.0792342197</v>
+        <v>-442069.538360192</v>
       </c>
       <c r="F6" t="n">
-        <v>83187.95724267641</v>
+        <v>83090.4981167043</v>
       </c>
       <c r="G6" t="n">
-        <v>83187.95724267649</v>
+        <v>83090.49811670432</v>
       </c>
       <c r="H6" t="n">
-        <v>83187.95724267641</v>
+        <v>83090.49811670426</v>
       </c>
       <c r="I6" t="n">
-        <v>83187.95724267644</v>
+        <v>83090.49811670426</v>
       </c>
       <c r="J6" t="n">
-        <v>-93235.26194991652</v>
+        <v>-93332.72107588864</v>
       </c>
       <c r="K6" t="n">
-        <v>23326.73176753054</v>
+        <v>23308.23802959585</v>
       </c>
       <c r="L6" t="n">
-        <v>53469.80466667535</v>
+        <v>53469.80466667557</v>
       </c>
       <c r="M6" t="n">
         <v>-70988.30376629491</v>
       </c>
       <c r="N6" t="n">
-        <v>63812.71146754229</v>
+        <v>63812.71146754231</v>
       </c>
       <c r="O6" t="n">
-        <v>63812.71146754231</v>
+        <v>63812.71146754234</v>
       </c>
       <c r="P6" t="n">
-        <v>19650.10616469673</v>
+        <v>19650.1061646965</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26750,34 +26750,34 @@
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010837</v>
+        <v>12.92863350108345</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855725</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855719</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,16 +27385,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>88.7178765420683</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,16 +27430,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>28.97644130339748</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.2141605149443</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27555,7 +27555,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27585,7 +27585,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,7 +27594,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>84.6777387526212</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,19 +27619,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>254.8519103109223</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>23.08468737793143</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27789,7 +27789,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>14.78429850839046</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>101.746916978272</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>314.0594097868503</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>303.4958447053174</v>
       </c>
     </row>
     <row r="9">
@@ -28014,13 +28014,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>11.96618320970915</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,19 +28065,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>245.5416277054593</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28524,7 +28524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.940255363782247e-12</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28849,10 +28849,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="24">
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855719</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31127,10 +31127,10 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>87.78329382423905</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31142,7 +31142,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392695</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479577</v>
@@ -31364,19 +31364,19 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>132.9984977071298</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>87.78329382423925</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454958106</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,7 +31841,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -31853,13 +31853,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>337.8039389768536</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -32081,7 +32081,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>222.4735343909616</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -32090,7 +32090,7 @@
         <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>341.0678223458549</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32315,34 +32315,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946997</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,37 +32549,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,16 +32725,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,37 +32786,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>298.3623899234881</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,22 +33023,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>216.4869287318324</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -33047,13 +33047,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,16 +33199,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33269,28 +33269,28 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,16 +33436,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647517</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,37 +33497,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>216.4869287318324</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>6.554244047028476</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,25 +33646,25 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130445</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,16 +33673,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33737,34 +33737,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>216.4869287318324</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>147.3268674777244</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,25 +33883,25 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041499</v>
       </c>
       <c r="L38" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,22 +33971,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>291.4295500091224</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -33995,13 +33995,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130947006</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,37 +34208,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,16 +34384,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647517</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,37 +34445,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34790,7 +34790,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -35012,19 +35012,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775188</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
@@ -35498,16 +35498,16 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>42.76911876546006</v>
       </c>
       <c r="O12" t="n">
-        <v>589.0700138091387</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>10.73738595686865</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187281</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>454.7594999145466</v>
       </c>
       <c r="M15" t="n">
-        <v>228.7283062629101</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
@@ -35820,7 +35820,7 @@
         <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118027</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
         <v>39.22569997187476</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>239.4656922197789</v>
+        <v>257.7076699552396</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36136,13 +36136,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>42.40415469635173</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>530.6483554470731</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>572.6057846157851</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>343.1107267700521</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>83.61691323812838</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>239.4656922197789</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>44.20523215765414</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412249</v>
+        <v>67.71102679412272</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075295</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043172</v>
+        <v>94.42895660043195</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37087,10 +37087,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>343.1107267700521</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>330.1252738750101</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,10 +37236,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>343.1107267700521</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>495.3275297379446</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>523.7155155327074</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37795,13 +37795,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>73.16654148477301</v>
       </c>
       <c r="N42" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38035,10 +38035,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>145.1299578148861</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
